--- a/templates/Excel/Line_Rejection.xlsx
+++ b/templates/Excel/Line_Rejection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://prettlcloud-my.sharepoint.com/personal/suriya_prakash_prettl_com/Documents/Desktop/AHP_STATION-1/AHP-STATION-1/AHP-Station1/templates/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD3C05F64975A2E1159B620B26469F8E4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E04EF74F-1886-4F86-B85A-E7BCFC75B5FB}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD3C0D9307FB93011596140B57EFDE4D9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E15C63DF-3150-43EC-B509-56976C871C9B}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>shift</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Shift</t>
+  </si>
+  <si>
+    <t>Total Count:</t>
   </si>
   <si>
     <t>Threaded Ferrule Damage</t>
@@ -58,37 +61,64 @@
     <t>Fallen Down Part  (FD1)</t>
   </si>
   <si>
-    <t>remark</t>
-  </si>
-  <si>
-    <t>qa-sign</t>
-  </si>
-  <si>
-    <t>eng-sign</t>
-  </si>
-  <si>
-    <t>2025-01-25</t>
+    <t>Remark</t>
+  </si>
+  <si>
+    <t>QA-Sign</t>
+  </si>
+  <si>
+    <t>Engg-Sign</t>
+  </si>
+  <si>
+    <t>2025-01-17T18:09</t>
   </si>
   <si>
     <t>SHIFT1</t>
   </si>
   <si>
-    <t>2025-02-03T16:08</t>
-  </si>
-  <si>
-    <t>SHIFT2</t>
+    <t>2025-01-28T18:10</t>
+  </si>
+  <si>
+    <t>2025-01-28T18:29</t>
+  </si>
+  <si>
+    <t>2025-01-28T21:32</t>
+  </si>
+  <si>
+    <t>2025-01-01T19:13</t>
+  </si>
+  <si>
+    <t>2025-01-11T19:28</t>
+  </si>
+  <si>
+    <t>100</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>777</t>
-  </si>
-  <si>
-    <t>8889</t>
-  </si>
-  <si>
-    <t>999</t>
+    <t>20</t>
+  </si>
+  <si>
+    <t>022</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>dgv</t>
+  </si>
+  <si>
+    <t>zx</t>
+  </si>
+  <si>
+    <t>zxc</t>
   </si>
 </sst>
 </file>
@@ -451,16 +481,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -506,193 +536,508 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="L2">
         <v>10</v>
       </c>
       <c r="M2">
-        <v>111</v>
+        <v>1</v>
       </c>
       <c r="N2">
-        <v>222</v>
+        <v>1</v>
       </c>
       <c r="O2">
-        <v>333</v>
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3">
+        <v>322</v>
+      </c>
+      <c r="D3">
+        <v>22</v>
+      </c>
+      <c r="E3">
+        <v>22</v>
+      </c>
+      <c r="F3">
+        <v>22</v>
+      </c>
+      <c r="G3">
+        <v>22</v>
+      </c>
+      <c r="H3">
+        <v>22</v>
+      </c>
+      <c r="I3">
+        <v>22</v>
+      </c>
+      <c r="J3">
+        <v>22</v>
+      </c>
+      <c r="K3">
+        <v>22</v>
+      </c>
+      <c r="L3">
+        <v>22</v>
+      </c>
+      <c r="M3">
+        <v>22</v>
+      </c>
+      <c r="N3">
+        <v>22</v>
+      </c>
+      <c r="O3">
+        <v>22</v>
+      </c>
+      <c r="P3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>18</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>777</v>
-      </c>
-      <c r="N3">
-        <v>8889</v>
-      </c>
-      <c r="O3">
-        <v>999</v>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>322</v>
+      </c>
+      <c r="D4">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>22</v>
+      </c>
+      <c r="F4">
+        <v>22</v>
+      </c>
+      <c r="G4">
+        <v>22</v>
+      </c>
+      <c r="H4">
+        <v>22</v>
+      </c>
+      <c r="I4">
+        <v>22</v>
+      </c>
+      <c r="J4">
+        <v>22</v>
+      </c>
+      <c r="K4">
+        <v>22</v>
+      </c>
+      <c r="L4">
+        <v>22</v>
+      </c>
+      <c r="M4">
+        <v>22</v>
+      </c>
+      <c r="N4">
+        <v>22</v>
+      </c>
+      <c r="O4">
+        <v>22</v>
+      </c>
+      <c r="P4">
+        <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
         <v>17</v>
       </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>777</v>
-      </c>
-      <c r="N4">
-        <v>8889</v>
-      </c>
-      <c r="O4">
-        <v>999</v>
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>12</v>
+      </c>
+      <c r="F6">
+        <v>12</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>12</v>
+      </c>
+      <c r="F7">
+        <v>12</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="N5" t="s">
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>52</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="I8">
+        <v>6</v>
+      </c>
+      <c r="J8">
+        <v>6</v>
+      </c>
+      <c r="K8">
+        <v>6</v>
+      </c>
+      <c r="L8">
+        <v>6</v>
+      </c>
+      <c r="M8">
+        <v>5</v>
+      </c>
+      <c r="N8">
+        <v>6</v>
+      </c>
+      <c r="O8">
+        <v>6</v>
+      </c>
+      <c r="P8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>52</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+      <c r="H9">
+        <v>6</v>
+      </c>
+      <c r="I9">
+        <v>6</v>
+      </c>
+      <c r="J9">
+        <v>6</v>
+      </c>
+      <c r="K9">
+        <v>6</v>
+      </c>
+      <c r="L9">
+        <v>6</v>
+      </c>
+      <c r="M9">
+        <v>5</v>
+      </c>
+      <c r="N9">
+        <v>6</v>
+      </c>
+      <c r="O9">
+        <v>6</v>
+      </c>
+      <c r="P9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>21</v>
       </c>
-      <c r="O5" t="s">
-        <v>22</v>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" t="s">
+        <v>29</v>
+      </c>
+      <c r="N11" t="s">
+        <v>30</v>
+      </c>
+      <c r="O11" t="s">
+        <v>31</v>
+      </c>
+      <c r="P11" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
